--- a/typo_lookup.xlsx
+++ b/typo_lookup.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\PROJECTS\biodiverskripsi_data_visualization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C67A487-7012-4318-A27F-812A5742B357}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="lookup" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lookup!$B$1:$B$594</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="1129">
   <si>
     <t>typo</t>
   </si>
@@ -3299,13 +3297,121 @@
   </si>
   <si>
     <t>Calotropis</t>
+  </si>
+  <si>
+    <t>Acontistoptera</t>
+  </si>
+  <si>
+    <t>Anisota</t>
+  </si>
+  <si>
+    <t>Athyma nefte</t>
+  </si>
+  <si>
+    <t>Asteromyia</t>
+  </si>
+  <si>
+    <t>Chlaenius</t>
+  </si>
+  <si>
+    <t>Clubiona</t>
+  </si>
+  <si>
+    <t>Ectemnia invenusta</t>
+  </si>
+  <si>
+    <t>Amomum lacteum</t>
+  </si>
+  <si>
+    <t>Cerithium lacertinum</t>
+  </si>
+  <si>
+    <t>Edmundsius</t>
+  </si>
+  <si>
+    <t>Ercheia</t>
+  </si>
+  <si>
+    <t>Evagetes</t>
+  </si>
+  <si>
+    <t>Fagraea</t>
+  </si>
+  <si>
+    <t>Isthmia</t>
+  </si>
+  <si>
+    <t>Leucrocuta</t>
+  </si>
+  <si>
+    <t>Languria</t>
+  </si>
+  <si>
+    <t>Macronychus</t>
+  </si>
+  <si>
+    <t>Malacophrys</t>
+  </si>
+  <si>
+    <t>Malacopteron</t>
+  </si>
+  <si>
+    <t>Nandicius</t>
+  </si>
+  <si>
+    <t>Phaeoplaca</t>
+  </si>
+  <si>
+    <t>Phthitia</t>
+  </si>
+  <si>
+    <t>Phorothrophus</t>
+  </si>
+  <si>
+    <t>Platyscelio</t>
+  </si>
+  <si>
+    <t>Pnigalio</t>
+  </si>
+  <si>
+    <t>Psysocyclus</t>
+  </si>
+  <si>
+    <t>Puliciphora</t>
+  </si>
+  <si>
+    <t>Ringicula</t>
+  </si>
+  <si>
+    <t>Runcinia</t>
+  </si>
+  <si>
+    <t>Setornis criniger</t>
+  </si>
+  <si>
+    <t>Spathidioides</t>
+  </si>
+  <si>
+    <t>Symphoromyia</t>
+  </si>
+  <si>
+    <t>Terrilimosina</t>
+  </si>
+  <si>
+    <t>Tor soro</t>
+  </si>
+  <si>
+    <t>Trachylobium</t>
+  </si>
+  <si>
+    <t>Wattebledia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3320,6 +3426,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3342,7 +3454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3351,6 +3463,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3411,7 +3526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3463,7 +3578,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3657,27 +3772,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" customWidth="1"/>
+    <col min="1" max="2" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3685,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3693,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -3701,7 +3818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3709,7 +3826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3717,7 +3834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3725,7 +3842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3733,13 +3850,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -3747,7 +3866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3755,7 +3874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -3763,7 +3882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3771,7 +3890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3779,7 +3898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3787,7 +3906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3795,7 +3914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -3803,7 +3922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -3811,7 +3930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -3819,13 +3938,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -3833,7 +3954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -3841,7 +3962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -3849,7 +3970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -3857,7 +3978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
@@ -3865,7 +3986,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -3873,7 +3994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -3881,7 +4002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -3889,7 +4010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -3897,13 +4018,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3911,7 +4034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -3919,7 +4042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>63</v>
       </c>
@@ -3927,7 +4050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>65</v>
       </c>
@@ -3935,7 +4058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -3943,7 +4066,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
@@ -3951,7 +4074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -3959,7 +4082,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>76</v>
       </c>
@@ -3967,7 +4090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>78</v>
       </c>
@@ -3975,7 +4098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -3983,7 +4106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
@@ -3991,7 +4114,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -3999,7 +4122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -4007,7 +4130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>89</v>
       </c>
@@ -4015,7 +4138,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>91</v>
       </c>
@@ -4023,7 +4146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -4031,7 +4154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
@@ -4039,7 +4162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>97</v>
       </c>
@@ -4047,7 +4170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>99</v>
       </c>
@@ -4055,7 +4178,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>84</v>
       </c>
@@ -4063,7 +4186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>102</v>
       </c>
@@ -4071,7 +4194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
@@ -4079,7 +4202,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
@@ -4087,7 +4210,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>109</v>
       </c>
@@ -4095,13 +4218,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>113</v>
       </c>
@@ -4109,13 +4234,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>117</v>
       </c>
@@ -4123,7 +4250,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>119</v>
       </c>
@@ -4131,7 +4258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
@@ -4139,7 +4266,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>123</v>
       </c>
@@ -4147,7 +4274,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
@@ -4155,7 +4282,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>127</v>
       </c>
@@ -4163,7 +4290,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>130</v>
       </c>
@@ -4171,7 +4298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
@@ -4179,7 +4306,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>135</v>
       </c>
@@ -4187,7 +4314,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
@@ -4195,7 +4322,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
@@ -4203,7 +4330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
@@ -4211,7 +4338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>143</v>
       </c>
@@ -4219,7 +4346,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>145</v>
       </c>
@@ -4227,7 +4354,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
@@ -4235,7 +4362,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>150</v>
       </c>
@@ -4243,7 +4370,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>152</v>
       </c>
@@ -4251,7 +4378,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>155</v>
       </c>
@@ -4259,7 +4386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>157</v>
       </c>
@@ -4267,7 +4394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>160</v>
       </c>
@@ -4275,7 +4402,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>162</v>
       </c>
@@ -4283,7 +4410,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -4291,7 +4418,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>166</v>
       </c>
@@ -4299,13 +4426,13 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B80" s="5"/>
     </row>
-    <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>170</v>
       </c>
@@ -4313,7 +4440,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>173</v>
       </c>
@@ -4321,7 +4448,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>175</v>
       </c>
@@ -4329,7 +4456,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>177</v>
       </c>
@@ -4337,7 +4464,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>179</v>
       </c>
@@ -4345,7 +4472,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>182</v>
       </c>
@@ -4353,7 +4480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>184</v>
       </c>
@@ -4361,7 +4488,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>186</v>
       </c>
@@ -4369,7 +4496,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>189</v>
       </c>
@@ -4377,7 +4504,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>1091</v>
       </c>
@@ -4385,7 +4512,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>190</v>
       </c>
@@ -4393,7 +4520,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>192</v>
       </c>
@@ -4401,7 +4528,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>194</v>
       </c>
@@ -4409,7 +4536,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>196</v>
       </c>
@@ -4417,7 +4544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
@@ -4425,7 +4552,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>201</v>
       </c>
@@ -4433,7 +4560,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>203</v>
       </c>
@@ -4441,7 +4568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>205</v>
       </c>
@@ -4449,7 +4576,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>207</v>
       </c>
@@ -4457,7 +4584,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>209</v>
       </c>
@@ -4465,7 +4592,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>211</v>
       </c>
@@ -4473,7 +4600,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>213</v>
       </c>
@@ -4481,7 +4608,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>215</v>
       </c>
@@ -4489,7 +4616,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>217</v>
       </c>
@@ -4497,7 +4624,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>218</v>
       </c>
@@ -4505,7 +4632,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>220</v>
       </c>
@@ -4513,7 +4640,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>222</v>
       </c>
@@ -4521,7 +4648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>224</v>
       </c>
@@ -4529,7 +4656,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>226</v>
       </c>
@@ -4537,7 +4664,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>228</v>
       </c>
@@ -4545,7 +4672,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +4680,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>232</v>
       </c>
@@ -4561,7 +4688,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>234</v>
       </c>
@@ -4569,7 +4696,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
@@ -4577,21 +4704,23 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="4"/>
-    </row>
-    <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>241</v>
       </c>
@@ -4599,13 +4728,15 @@
         <v>242</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="5"/>
-    </row>
-    <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B118" s="5" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>244</v>
       </c>
@@ -4613,7 +4744,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>246</v>
       </c>
@@ -4621,7 +4752,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>248</v>
       </c>
@@ -4629,7 +4760,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>250</v>
       </c>
@@ -4637,7 +4768,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>252</v>
       </c>
@@ -4645,7 +4776,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>253</v>
       </c>
@@ -4653,7 +4784,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>255</v>
       </c>
@@ -4661,7 +4792,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>257</v>
       </c>
@@ -4669,7 +4800,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>258</v>
       </c>
@@ -4677,7 +4808,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>260</v>
       </c>
@@ -4685,7 +4816,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>262</v>
       </c>
@@ -4693,7 +4824,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>264</v>
       </c>
@@ -4701,7 +4832,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>267</v>
       </c>
@@ -4709,7 +4840,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>269</v>
       </c>
@@ -4717,7 +4848,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>271</v>
       </c>
@@ -4725,7 +4856,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>274</v>
       </c>
@@ -4733,7 +4864,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>276</v>
       </c>
@@ -4741,7 +4872,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>278</v>
       </c>
@@ -4749,13 +4880,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B137" s="5"/>
     </row>
-    <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>281</v>
       </c>
@@ -4763,7 +4894,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>283</v>
       </c>
@@ -4771,7 +4902,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
         <v>285</v>
       </c>
@@ -4779,7 +4910,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>286</v>
       </c>
@@ -4787,13 +4918,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="5"/>
-    </row>
-    <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B142" s="5" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>289</v>
       </c>
@@ -4801,7 +4934,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>291</v>
       </c>
@@ -4809,7 +4942,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>293</v>
       </c>
@@ -4817,7 +4950,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>295</v>
       </c>
@@ -4825,7 +4958,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>297</v>
       </c>
@@ -4833,7 +4966,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>299</v>
       </c>
@@ -4841,7 +4974,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>300</v>
       </c>
@@ -4849,7 +4982,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>302</v>
       </c>
@@ -4857,7 +4990,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>304</v>
       </c>
@@ -4865,7 +4998,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>306</v>
       </c>
@@ -4873,7 +5006,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>308</v>
       </c>
@@ -4881,7 +5014,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>310</v>
       </c>
@@ -4889,7 +5022,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>312</v>
       </c>
@@ -4897,7 +5030,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>314</v>
       </c>
@@ -4905,7 +5038,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>316</v>
       </c>
@@ -4913,7 +5046,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>318</v>
       </c>
@@ -4921,7 +5054,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>320</v>
       </c>
@@ -4929,7 +5062,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>321</v>
       </c>
@@ -4937,7 +5070,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
         <v>322</v>
       </c>
@@ -4945,7 +5078,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>323</v>
       </c>
@@ -4953,7 +5086,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>325</v>
       </c>
@@ -4961,7 +5094,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>327</v>
       </c>
@@ -4969,7 +5102,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>329</v>
       </c>
@@ -4977,7 +5110,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>331</v>
       </c>
@@ -4985,7 +5118,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>333</v>
       </c>
@@ -4993,7 +5126,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>335</v>
       </c>
@@ -5001,7 +5134,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>90</v>
       </c>
@@ -5009,7 +5142,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>338</v>
       </c>
@@ -5017,7 +5150,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>340</v>
       </c>
@@ -5025,7 +5158,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
         <v>342</v>
       </c>
@@ -5033,7 +5166,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>345</v>
       </c>
@@ -5041,7 +5174,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>347</v>
       </c>
@@ -5049,7 +5182,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>188</v>
       </c>
@@ -5057,7 +5190,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>351</v>
       </c>
@@ -5065,7 +5198,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>353</v>
       </c>
@@ -5073,7 +5206,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>355</v>
       </c>
@@ -5081,7 +5214,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>357</v>
       </c>
@@ -5089,7 +5222,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>359</v>
       </c>
@@ -5097,7 +5230,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>362</v>
       </c>
@@ -5105,7 +5238,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>364</v>
       </c>
@@ -5113,7 +5246,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>367</v>
       </c>
@@ -5121,7 +5254,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>369</v>
       </c>
@@ -5129,7 +5262,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>371</v>
       </c>
@@ -5137,7 +5270,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>373</v>
       </c>
@@ -5145,7 +5278,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>375</v>
       </c>
@@ -5153,7 +5286,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>377</v>
       </c>
@@ -5161,7 +5294,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>379</v>
       </c>
@@ -5169,7 +5302,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>381</v>
       </c>
@@ -5177,7 +5310,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>382</v>
       </c>
@@ -5185,7 +5318,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>383</v>
       </c>
@@ -5193,13 +5326,13 @@
         <v>384</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B193" s="4"/>
     </row>
-    <row r="194" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>386</v>
       </c>
@@ -5207,7 +5340,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>388</v>
       </c>
@@ -5215,19 +5348,19 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B196" s="5"/>
     </row>
-    <row r="197" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:2" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A197" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B197" s="5"/>
-    </row>
-    <row r="198" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>392</v>
       </c>
@@ -5235,7 +5368,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
@@ -5243,7 +5376,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>395</v>
       </c>
@@ -5251,7 +5384,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>397</v>
       </c>
@@ -5259,7 +5392,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>399</v>
       </c>
@@ -5267,7 +5400,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>401</v>
       </c>
@@ -5275,7 +5408,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>403</v>
       </c>
@@ -5283,7 +5416,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>405</v>
       </c>
@@ -5291,7 +5424,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>406</v>
       </c>
@@ -5299,7 +5432,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>408</v>
       </c>
@@ -5307,7 +5440,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>411</v>
       </c>
@@ -5315,7 +5448,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>413</v>
       </c>
@@ -5323,7 +5456,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>415</v>
       </c>
@@ -5331,7 +5464,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>417</v>
       </c>
@@ -5339,7 +5472,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>419</v>
       </c>
@@ -5347,7 +5480,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>421</v>
       </c>
@@ -5355,13 +5488,15 @@
         <v>420</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="5"/>
-    </row>
-    <row r="215" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B214" s="5" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>423</v>
       </c>
@@ -5369,13 +5504,15 @@
         <v>424</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B216" s="5"/>
-    </row>
-    <row r="217" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B216" s="5" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>426</v>
       </c>
@@ -5383,7 +5520,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>428</v>
       </c>
@@ -5391,7 +5528,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>430</v>
       </c>
@@ -5399,7 +5536,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>431</v>
       </c>
@@ -5407,7 +5544,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>433</v>
       </c>
@@ -5415,7 +5552,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>435</v>
       </c>
@@ -5423,7 +5560,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>437</v>
       </c>
@@ -5431,7 +5568,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>439</v>
       </c>
@@ -5439,7 +5576,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>441</v>
       </c>
@@ -5447,7 +5584,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>443</v>
       </c>
@@ -5455,7 +5592,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>445</v>
       </c>
@@ -5463,13 +5600,15 @@
         <v>446</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B228" s="5"/>
-    </row>
-    <row r="229" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B228" s="5" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>448</v>
       </c>
@@ -5477,7 +5616,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>450</v>
       </c>
@@ -5485,7 +5624,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>452</v>
       </c>
@@ -5493,7 +5632,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>454</v>
       </c>
@@ -5501,7 +5640,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>456</v>
       </c>
@@ -5509,7 +5648,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>458</v>
       </c>
@@ -5517,7 +5656,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>461</v>
       </c>
@@ -5525,7 +5664,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>463</v>
       </c>
@@ -5533,7 +5672,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>465</v>
       </c>
@@ -5541,7 +5680,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>467</v>
       </c>
@@ -5549,7 +5688,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>469</v>
       </c>
@@ -5557,7 +5696,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>471</v>
       </c>
@@ -5565,7 +5704,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>472</v>
       </c>
@@ -5573,7 +5712,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>473</v>
       </c>
@@ -5581,7 +5720,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>475</v>
       </c>
@@ -5589,13 +5728,15 @@
         <v>476</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B244" s="5"/>
-    </row>
-    <row r="245" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B244" s="5" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>478</v>
       </c>
@@ -5603,7 +5744,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>480</v>
       </c>
@@ -5611,7 +5752,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>482</v>
       </c>
@@ -5619,7 +5760,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>484</v>
       </c>
@@ -5627,13 +5768,15 @@
         <v>485</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B249" s="5"/>
-    </row>
-    <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B249" s="5" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>487</v>
       </c>
@@ -5641,7 +5784,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>489</v>
       </c>
@@ -5649,7 +5792,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>491</v>
       </c>
@@ -5657,7 +5800,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>493</v>
       </c>
@@ -5665,7 +5808,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>495</v>
       </c>
@@ -5673,7 +5816,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>497</v>
       </c>
@@ -5681,7 +5824,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>499</v>
       </c>
@@ -5689,7 +5832,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>501</v>
       </c>
@@ -5697,7 +5840,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>503</v>
       </c>
@@ -5705,7 +5848,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>104</v>
       </c>
@@ -5713,7 +5856,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>506</v>
       </c>
@@ -5721,7 +5864,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>508</v>
       </c>
@@ -5729,7 +5872,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>510</v>
       </c>
@@ -5737,7 +5880,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>512</v>
       </c>
@@ -5745,7 +5888,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>514</v>
       </c>
@@ -5753,7 +5896,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>516</v>
       </c>
@@ -5761,7 +5904,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>518</v>
       </c>
@@ -5769,7 +5912,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>520</v>
       </c>
@@ -5777,7 +5920,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>521</v>
       </c>
@@ -5785,7 +5928,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>522</v>
       </c>
@@ -5793,7 +5936,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>22</v>
       </c>
@@ -5801,7 +5944,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>525</v>
       </c>
@@ -5809,7 +5952,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>528</v>
       </c>
@@ -5817,7 +5960,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>531</v>
       </c>
@@ -5825,7 +5968,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>533</v>
       </c>
@@ -5833,7 +5976,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>534</v>
       </c>
@@ -5841,7 +5984,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>536</v>
       </c>
@@ -5849,7 +5992,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>538</v>
       </c>
@@ -5857,7 +6000,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>540</v>
       </c>
@@ -5865,7 +6008,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>542</v>
       </c>
@@ -5873,7 +6016,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>544</v>
       </c>
@@ -5881,7 +6024,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>546</v>
       </c>
@@ -5889,7 +6032,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>548</v>
       </c>
@@ -5897,7 +6040,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>72</v>
       </c>
@@ -5905,7 +6048,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>550</v>
       </c>
@@ -5913,7 +6056,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>552</v>
       </c>
@@ -5921,7 +6064,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>554</v>
       </c>
@@ -5929,7 +6072,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>555</v>
       </c>
@@ -5937,7 +6080,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>557</v>
       </c>
@@ -5945,7 +6088,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>559</v>
       </c>
@@ -5953,7 +6096,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>1089</v>
       </c>
@@ -5961,7 +6104,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>1087</v>
       </c>
@@ -5969,7 +6112,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>561</v>
       </c>
@@ -5977,7 +6120,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>563</v>
       </c>
@@ -5985,7 +6128,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>565</v>
       </c>
@@ -5993,7 +6136,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>567</v>
       </c>
@@ -6001,7 +6144,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>569</v>
       </c>
@@ -6009,7 +6152,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>571</v>
       </c>
@@ -6017,7 +6160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>573</v>
       </c>
@@ -6025,7 +6168,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>575</v>
       </c>
@@ -6033,7 +6176,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>577</v>
       </c>
@@ -6041,7 +6184,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>356</v>
       </c>
@@ -6049,7 +6192,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>171</v>
       </c>
@@ -6057,7 +6200,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>114</v>
       </c>
@@ -6065,7 +6208,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>582</v>
       </c>
@@ -6073,7 +6216,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>584</v>
       </c>
@@ -6081,7 +6224,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>587</v>
       </c>
@@ -6089,7 +6232,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>589</v>
       </c>
@@ -6097,7 +6240,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>591</v>
       </c>
@@ -6105,7 +6248,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>593</v>
       </c>
@@ -6113,7 +6256,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>596</v>
       </c>
@@ -6121,7 +6264,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>598</v>
       </c>
@@ -6129,7 +6272,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>600</v>
       </c>
@@ -6137,7 +6280,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>602</v>
       </c>
@@ -6145,7 +6288,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>604</v>
       </c>
@@ -6153,7 +6296,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>460</v>
       </c>
@@ -6161,7 +6304,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>607</v>
       </c>
@@ -6169,13 +6312,15 @@
         <v>608</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B317" s="5"/>
-    </row>
-    <row r="318" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B317" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>610</v>
       </c>
@@ -6183,7 +6328,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>612</v>
       </c>
@@ -6191,7 +6336,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>614</v>
       </c>
@@ -6199,7 +6344,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>617</v>
       </c>
@@ -6207,7 +6352,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>619</v>
       </c>
@@ -6215,13 +6360,13 @@
         <v>620</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>621</v>
       </c>
       <c r="B323" s="5"/>
     </row>
-    <row r="324" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>67</v>
       </c>
@@ -6229,7 +6374,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>624</v>
       </c>
@@ -6237,7 +6382,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>626</v>
       </c>
@@ -6245,7 +6390,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>628</v>
       </c>
@@ -6253,7 +6398,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>630</v>
       </c>
@@ -6261,7 +6406,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>632</v>
       </c>
@@ -6269,7 +6414,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>634</v>
       </c>
@@ -6277,7 +6422,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>635</v>
       </c>
@@ -6285,7 +6430,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>637</v>
       </c>
@@ -6293,7 +6438,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>639</v>
       </c>
@@ -6301,7 +6446,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>641</v>
       </c>
@@ -6309,7 +6454,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>643</v>
       </c>
@@ -6317,13 +6462,15 @@
         <v>644</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B336" s="5"/>
-    </row>
-    <row r="337" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B336" s="5" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>645</v>
       </c>
@@ -6331,7 +6478,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>647</v>
       </c>
@@ -6339,7 +6486,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>649</v>
       </c>
@@ -6347,7 +6494,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>651</v>
       </c>
@@ -6355,7 +6502,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>653</v>
       </c>
@@ -6363,7 +6510,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>655</v>
       </c>
@@ -6371,13 +6518,15 @@
         <v>657</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B343" s="5"/>
-    </row>
-    <row r="344" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B343" s="5" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>658</v>
       </c>
@@ -6385,7 +6534,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>659</v>
       </c>
@@ -6393,7 +6542,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>661</v>
       </c>
@@ -6401,7 +6550,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>663</v>
       </c>
@@ -6409,7 +6558,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>665</v>
       </c>
@@ -6417,7 +6566,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>667</v>
       </c>
@@ -6425,13 +6574,15 @@
         <v>668</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B350" s="5"/>
-    </row>
-    <row r="351" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B350" s="5" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>669</v>
       </c>
@@ -6439,19 +6590,23 @@
         <v>670</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B352" s="5"/>
-    </row>
-    <row r="353" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B352" s="5" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="B353" s="5"/>
-    </row>
-    <row r="354" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B353" s="5" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>673</v>
       </c>
@@ -6459,7 +6614,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>675</v>
       </c>
@@ -6467,7 +6622,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>75</v>
       </c>
@@ -6475,7 +6630,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>678</v>
       </c>
@@ -6483,7 +6638,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>680</v>
       </c>
@@ -6491,7 +6646,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>682</v>
       </c>
@@ -6499,7 +6654,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>684</v>
       </c>
@@ -6507,7 +6662,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>686</v>
       </c>
@@ -6515,7 +6670,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>688</v>
       </c>
@@ -6523,7 +6678,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>690</v>
       </c>
@@ -6531,7 +6686,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>272</v>
       </c>
@@ -6539,7 +6694,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>692</v>
       </c>
@@ -6547,7 +6702,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>266</v>
       </c>
@@ -6555,7 +6710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>693</v>
       </c>
@@ -6563,7 +6718,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>695</v>
       </c>
@@ -6571,7 +6726,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>697</v>
       </c>
@@ -6579,7 +6734,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>699</v>
       </c>
@@ -6587,7 +6742,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>701</v>
       </c>
@@ -6595,7 +6750,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>703</v>
       </c>
@@ -6603,7 +6758,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>705</v>
       </c>
@@ -6611,7 +6766,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>707</v>
       </c>
@@ -6619,7 +6774,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A375" s="5" t="s">
         <v>709</v>
       </c>
@@ -6627,7 +6782,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>711</v>
       </c>
@@ -6635,7 +6790,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>713</v>
       </c>
@@ -6643,7 +6798,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>715</v>
       </c>
@@ -6651,7 +6806,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>717</v>
       </c>
@@ -6659,7 +6814,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A380" s="5" t="s">
         <v>719</v>
       </c>
@@ -6667,7 +6822,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>721</v>
       </c>
@@ -6675,7 +6830,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>723</v>
       </c>
@@ -6683,7 +6838,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>725</v>
       </c>
@@ -6691,7 +6846,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>727</v>
       </c>
@@ -6699,7 +6854,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>729</v>
       </c>
@@ -6707,13 +6862,13 @@
         <v>724</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>730</v>
       </c>
       <c r="B386" s="4"/>
     </row>
-    <row r="387" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>731</v>
       </c>
@@ -6721,7 +6876,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>733</v>
       </c>
@@ -6729,7 +6884,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A389" s="5" t="s">
         <v>656</v>
       </c>
@@ -6737,13 +6892,15 @@
         <v>656</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A390" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B390" s="5"/>
-    </row>
-    <row r="391" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B390" s="5" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>736</v>
       </c>
@@ -6751,7 +6908,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>738</v>
       </c>
@@ -6759,7 +6916,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>740</v>
       </c>
@@ -6767,13 +6924,13 @@
         <v>409</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A394" s="5" t="s">
         <v>741</v>
       </c>
       <c r="B394" s="5"/>
     </row>
-    <row r="395" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>742</v>
       </c>
@@ -6781,7 +6938,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>744</v>
       </c>
@@ -6789,7 +6946,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>746</v>
       </c>
@@ -6797,7 +6954,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>748</v>
       </c>
@@ -6805,7 +6962,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>749</v>
       </c>
@@ -6813,7 +6970,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>750</v>
       </c>
@@ -6821,7 +6978,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>752</v>
       </c>
@@ -6829,13 +6986,13 @@
         <v>753</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A402" s="5" t="s">
         <v>754</v>
       </c>
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>755</v>
       </c>
@@ -6843,7 +7000,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A404" s="5" t="s">
         <v>757</v>
       </c>
@@ -6851,7 +7008,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>759</v>
       </c>
@@ -6859,7 +7016,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>761</v>
       </c>
@@ -6867,7 +7024,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>763</v>
       </c>
@@ -6875,7 +7032,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>765</v>
       </c>
@@ -6883,7 +7040,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>767</v>
       </c>
@@ -6891,7 +7048,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>769</v>
       </c>
@@ -6899,7 +7056,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>771</v>
       </c>
@@ -6907,7 +7064,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>773</v>
       </c>
@@ -6915,7 +7072,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
         <v>775</v>
       </c>
@@ -6923,7 +7080,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>777</v>
       </c>
@@ -6931,7 +7088,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>779</v>
       </c>
@@ -6939,7 +7096,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>781</v>
       </c>
@@ -6947,7 +7104,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>783</v>
       </c>
@@ -6955,7 +7112,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>785</v>
       </c>
@@ -6963,7 +7120,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>787</v>
       </c>
@@ -6971,13 +7128,13 @@
         <v>788</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B420" s="5"/>
     </row>
-    <row r="421" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>789</v>
       </c>
@@ -6985,7 +7142,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>791</v>
       </c>
@@ -6993,7 +7150,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>793</v>
       </c>
@@ -7001,13 +7158,15 @@
         <v>768</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="B424" s="5"/>
-    </row>
-    <row r="425" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B424" s="5" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>795</v>
       </c>
@@ -7015,7 +7174,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>797</v>
       </c>
@@ -7023,7 +7182,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>799</v>
       </c>
@@ -7031,7 +7190,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>801</v>
       </c>
@@ -7039,7 +7198,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>803</v>
       </c>
@@ -7047,19 +7206,23 @@
         <v>804</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B430" s="5"/>
-    </row>
-    <row r="431" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B430" s="5" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="B431" s="5"/>
-    </row>
-    <row r="432" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B431" s="5" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>807</v>
       </c>
@@ -7067,7 +7230,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>133</v>
       </c>
@@ -7075,7 +7238,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>809</v>
       </c>
@@ -7083,7 +7246,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>811</v>
       </c>
@@ -7091,7 +7254,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>813</v>
       </c>
@@ -7099,7 +7262,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>815</v>
       </c>
@@ -7107,7 +7270,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>366</v>
       </c>
@@ -7115,7 +7278,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>818</v>
       </c>
@@ -7123,7 +7286,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A440" s="2" t="s">
         <v>820</v>
       </c>
@@ -7131,13 +7294,15 @@
         <v>821</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B441" s="5"/>
-    </row>
-    <row r="442" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B441" s="5" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A442" s="2" t="s">
         <v>823</v>
       </c>
@@ -7145,7 +7310,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
         <v>825</v>
       </c>
@@ -7153,7 +7318,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>827</v>
       </c>
@@ -7161,7 +7326,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>829</v>
       </c>
@@ -7169,13 +7334,15 @@
         <v>830</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="B446" s="5"/>
-    </row>
-    <row r="447" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B446" s="5" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
         <v>832</v>
       </c>
@@ -7183,7 +7350,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
         <v>834</v>
       </c>
@@ -7191,7 +7358,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
         <v>836</v>
       </c>
@@ -7199,7 +7366,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
         <v>838</v>
       </c>
@@ -7207,7 +7374,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
         <v>840</v>
       </c>
@@ -7215,7 +7382,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>841</v>
       </c>
@@ -7223,7 +7390,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>843</v>
       </c>
@@ -7231,7 +7398,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A454" s="2" t="s">
         <v>845</v>
       </c>
@@ -7239,7 +7406,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A455" s="2" t="s">
         <v>361</v>
       </c>
@@ -7247,7 +7414,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A456" s="2" t="s">
         <v>58</v>
       </c>
@@ -7255,7 +7422,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A457" s="2" t="s">
         <v>848</v>
       </c>
@@ -7263,7 +7430,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A458" s="2" t="s">
         <v>181</v>
       </c>
@@ -7271,7 +7438,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
         <v>851</v>
       </c>
@@ -7279,7 +7446,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A460" s="2" t="s">
         <v>853</v>
       </c>
@@ -7287,7 +7454,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>530</v>
       </c>
@@ -7295,13 +7462,15 @@
         <v>856</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="B462" s="5"/>
-    </row>
-    <row r="463" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B462" s="5" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>858</v>
       </c>
@@ -7309,7 +7478,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A464" s="2" t="s">
         <v>860</v>
       </c>
@@ -7317,7 +7486,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>862</v>
       </c>
@@ -7325,7 +7494,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A466" s="2" t="s">
         <v>864</v>
       </c>
@@ -7333,13 +7502,15 @@
         <v>865</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="B467" s="5"/>
-    </row>
-    <row r="468" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B467" s="5" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
         <v>867</v>
       </c>
@@ -7347,7 +7518,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
         <v>344</v>
       </c>
@@ -7355,7 +7526,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
         <v>870</v>
       </c>
@@ -7363,7 +7534,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>872</v>
       </c>
@@ -7371,7 +7542,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>874</v>
       </c>
@@ -7379,7 +7550,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A473" s="2" t="s">
         <v>876</v>
       </c>
@@ -7387,7 +7558,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A474" s="2" t="s">
         <v>878</v>
       </c>
@@ -7395,7 +7566,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A475" s="2" t="s">
         <v>880</v>
       </c>
@@ -7403,7 +7574,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A476" s="2" t="s">
         <v>882</v>
       </c>
@@ -7411,7 +7582,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A477" s="2" t="s">
         <v>855</v>
       </c>
@@ -7419,7 +7590,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A478" s="2" t="s">
         <v>885</v>
       </c>
@@ -7427,7 +7598,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A479" s="2" t="s">
         <v>886</v>
       </c>
@@ -7435,7 +7606,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
         <v>888</v>
       </c>
@@ -7443,7 +7614,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
         <v>890</v>
       </c>
@@ -7451,7 +7622,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>891</v>
       </c>
@@ -7459,7 +7630,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A483" s="5" t="s">
         <v>892</v>
       </c>
@@ -7467,7 +7638,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A484" s="2" t="s">
         <v>894</v>
       </c>
@@ -7475,13 +7646,13 @@
         <v>895</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A485" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B485" s="5"/>
     </row>
-    <row r="486" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A486" s="2" t="s">
         <v>896</v>
       </c>
@@ -7489,13 +7660,15 @@
         <v>897</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A487" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="B487" s="5"/>
-    </row>
-    <row r="488" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B487" s="5" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A488" s="2" t="s">
         <v>899</v>
       </c>
@@ -7503,7 +7676,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A489" s="2" t="s">
         <v>901</v>
       </c>
@@ -7511,13 +7684,15 @@
         <v>902</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A490" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B490" s="5"/>
-    </row>
-    <row r="491" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B490" s="5" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A491" s="2" t="s">
         <v>904</v>
       </c>
@@ -7525,7 +7700,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A492" s="2" t="s">
         <v>906</v>
       </c>
@@ -7533,7 +7708,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A493" s="2" t="s">
         <v>908</v>
       </c>
@@ -7541,7 +7716,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A494" s="2" t="s">
         <v>910</v>
       </c>
@@ -7549,13 +7724,13 @@
         <v>911</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A495" s="5" t="s">
         <v>623</v>
       </c>
       <c r="B495" s="5"/>
     </row>
-    <row r="496" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A496" s="2" t="s">
         <v>912</v>
       </c>
@@ -7563,7 +7738,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="497" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A497" s="2" t="s">
         <v>914</v>
       </c>
@@ -7571,7 +7746,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="498" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A498" s="2" t="s">
         <v>153</v>
       </c>
@@ -7579,7 +7754,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="499" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A499" s="2" t="s">
         <v>917</v>
       </c>
@@ -7587,7 +7762,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="500" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>919</v>
       </c>
@@ -7595,7 +7770,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="501" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A501" s="2" t="s">
         <v>921</v>
       </c>
@@ -7603,7 +7778,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="502" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A502" s="2" t="s">
         <v>923</v>
       </c>
@@ -7611,7 +7786,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="503" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
         <v>925</v>
       </c>
@@ -7619,7 +7794,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="504" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A504" s="3" t="s">
         <v>927</v>
       </c>
@@ -7627,7 +7802,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="505" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A505" s="2" t="s">
         <v>10</v>
       </c>
@@ -7635,19 +7810,21 @@
         <v>929</v>
       </c>
     </row>
-    <row r="506" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A506" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B506" s="5"/>
-    </row>
-    <row r="507" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B506" s="5" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A507" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B507" s="5"/>
     </row>
-    <row r="508" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
         <v>931</v>
       </c>
@@ -7655,13 +7832,13 @@
         <v>932</v>
       </c>
     </row>
-    <row r="509" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A509" s="5" t="s">
         <v>934</v>
       </c>
       <c r="B509" s="5"/>
     </row>
-    <row r="510" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
         <v>935</v>
       </c>
@@ -7669,7 +7846,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="511" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
         <v>937</v>
       </c>
@@ -7677,7 +7854,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="512" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A512" s="2" t="s">
         <v>939</v>
       </c>
@@ -7685,7 +7862,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="513" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>941</v>
       </c>
@@ -7693,7 +7870,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="514" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
         <v>943</v>
       </c>
@@ -7701,7 +7878,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="515" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A515" s="2" t="s">
         <v>945</v>
       </c>
@@ -7709,7 +7886,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="516" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A516" s="2" t="s">
         <v>947</v>
       </c>
@@ -7717,7 +7894,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="517" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A517" s="2" t="s">
         <v>949</v>
       </c>
@@ -7725,13 +7902,15 @@
         <v>950</v>
       </c>
     </row>
-    <row r="518" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A518" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="B518" s="5"/>
-    </row>
-    <row r="519" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B518" s="5" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A519" s="2" t="s">
         <v>952</v>
       </c>
@@ -7739,7 +7918,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="520" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A520" s="2" t="s">
         <v>954</v>
       </c>
@@ -7747,7 +7926,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="521" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A521" s="2" t="s">
         <v>956</v>
       </c>
@@ -7755,7 +7934,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="522" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A522" s="2" t="s">
         <v>958</v>
       </c>
@@ -7763,7 +7942,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="523" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A523" s="2" t="s">
         <v>960</v>
       </c>
@@ -7771,7 +7950,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="524" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A524" s="2" t="s">
         <v>81</v>
       </c>
@@ -7779,7 +7958,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="525" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A525" s="2" t="s">
         <v>963</v>
       </c>
@@ -7787,7 +7966,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="526" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A526" s="2" t="s">
         <v>111</v>
       </c>
@@ -7795,7 +7974,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="527" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A527" s="2" t="s">
         <v>966</v>
       </c>
@@ -7803,7 +7982,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="528" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A528" s="2" t="s">
         <v>968</v>
       </c>
@@ -7811,7 +7990,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A529" s="2" t="s">
         <v>970</v>
       </c>
@@ -7819,7 +7998,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A530" s="2" t="s">
         <v>972</v>
       </c>
@@ -7827,7 +8006,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="531" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A531" s="2" t="s">
         <v>974</v>
       </c>
@@ -7835,7 +8014,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A532" s="2" t="s">
         <v>976</v>
       </c>
@@ -7843,7 +8022,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="533" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A533" s="2" t="s">
         <v>978</v>
       </c>
@@ -7851,7 +8030,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="534" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A534" s="2" t="s">
         <v>980</v>
       </c>
@@ -7859,7 +8038,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="535" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A535" s="2" t="s">
         <v>982</v>
       </c>
@@ -7867,7 +8046,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="536" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A536" s="2" t="s">
         <v>984</v>
       </c>
@@ -7875,7 +8054,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A537" s="2" t="s">
         <v>986</v>
       </c>
@@ -7883,7 +8062,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A538" s="2" t="s">
         <v>988</v>
       </c>
@@ -7891,13 +8070,15 @@
         <v>989</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A539" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="B539" s="5"/>
-    </row>
-    <row r="540" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B539" s="5" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A540" s="2" t="s">
         <v>991</v>
       </c>
@@ -7905,7 +8086,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="541" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A541" s="2" t="s">
         <v>993</v>
       </c>
@@ -7913,7 +8094,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="542" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A542" s="2" t="s">
         <v>995</v>
       </c>
@@ -7921,7 +8102,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="543" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A543" s="2" t="s">
         <v>997</v>
       </c>
@@ -7929,7 +8110,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="544" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A544" s="2" t="s">
         <v>146</v>
       </c>
@@ -7937,7 +8118,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="545" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A545" s="2" t="s">
         <v>999</v>
       </c>
@@ -7945,7 +8126,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A546" s="2" t="s">
         <v>1001</v>
       </c>
@@ -7953,7 +8134,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="547" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A547" s="2" t="s">
         <v>1003</v>
       </c>
@@ -7961,7 +8142,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="548" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A548" s="2" t="s">
         <v>1005</v>
       </c>
@@ -7969,7 +8150,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="549" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A549" s="2" t="s">
         <v>1007</v>
       </c>
@@ -7977,7 +8158,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="550" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A550" s="2" t="s">
         <v>1009</v>
       </c>
@@ -7985,13 +8166,15 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="551" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A551" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="B551" s="5"/>
-    </row>
-    <row r="552" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B551" s="5" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A552" s="2" t="s">
         <v>1012</v>
       </c>
@@ -7999,7 +8182,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="553" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A553" s="2" t="s">
         <v>1014</v>
       </c>
@@ -8007,7 +8190,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="554" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A554" s="2" t="s">
         <v>1014</v>
       </c>
@@ -8015,7 +8198,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="555" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A555" s="2" t="s">
         <v>1017</v>
       </c>
@@ -8023,7 +8206,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="556" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A556" s="2" t="s">
         <v>1019</v>
       </c>
@@ -8031,7 +8214,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="557" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A557" s="2" t="s">
         <v>1020</v>
       </c>
@@ -8039,7 +8222,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="558" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
         <v>1022</v>
       </c>
@@ -8047,7 +8230,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="559" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A559" s="2" t="s">
         <v>128</v>
       </c>
@@ -8055,7 +8238,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="560" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A560" s="2" t="s">
         <v>1025</v>
       </c>
@@ -8063,7 +8246,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="561" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A561" s="2" t="s">
         <v>1027</v>
       </c>
@@ -8071,7 +8254,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="562" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A562" s="2" t="s">
         <v>1029</v>
       </c>
@@ -8079,7 +8262,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="563" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A563" s="2" t="s">
         <v>1031</v>
       </c>
@@ -8087,7 +8270,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="564" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A564" s="2" t="s">
         <v>1033</v>
       </c>
@@ -8095,7 +8278,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
         <v>1035</v>
       </c>
@@ -8103,13 +8286,15 @@
         <v>926</v>
       </c>
     </row>
-    <row r="566" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A566" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B566" s="5"/>
-    </row>
-    <row r="567" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B566" s="5" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A567" s="2" t="s">
         <v>1037</v>
       </c>
@@ -8117,7 +8302,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="568" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A568" s="2" t="s">
         <v>1039</v>
       </c>
@@ -8125,13 +8310,15 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="569" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A569" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="B569" s="5"/>
-    </row>
-    <row r="570" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B569" s="5" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A570" s="2" t="s">
         <v>1042</v>
       </c>
@@ -8139,7 +8326,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="571" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A571" s="2" t="s">
         <v>1044</v>
       </c>
@@ -8147,7 +8334,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="572" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A572" s="2" t="s">
         <v>1046</v>
       </c>
@@ -8155,7 +8342,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="573" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A573" s="2" t="s">
         <v>1048</v>
       </c>
@@ -8163,7 +8350,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="574" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A574" s="2" t="s">
         <v>1050</v>
       </c>
@@ -8171,7 +8358,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="575" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A575" s="2" t="s">
         <v>1052</v>
       </c>
@@ -8179,7 +8366,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A576" s="2" t="s">
         <v>1054</v>
       </c>
@@ -8187,7 +8374,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="577" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A577" s="2" t="s">
         <v>1055</v>
       </c>
@@ -8195,7 +8382,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="578" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A578" s="2" t="s">
         <v>1057</v>
       </c>
@@ -8203,7 +8390,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="579" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A579" s="2" t="s">
         <v>94</v>
       </c>
@@ -8211,7 +8398,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="580" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A580" s="2" t="s">
         <v>1060</v>
       </c>
@@ -8219,7 +8406,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="581" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
         <v>1062</v>
       </c>
@@ -8227,7 +8414,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="582" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
         <v>1064</v>
       </c>
@@ -8235,7 +8422,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="583" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>1066</v>
       </c>
@@ -8243,7 +8430,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="584" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A584" s="2" t="s">
         <v>1068</v>
       </c>
@@ -8251,7 +8438,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="585" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>1021</v>
       </c>
@@ -8259,7 +8446,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="586" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>1071</v>
       </c>
@@ -8267,7 +8454,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="587" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A587" s="2" t="s">
         <v>1073</v>
       </c>
@@ -8275,7 +8462,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="588" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>1075</v>
       </c>
@@ -8283,7 +8470,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>1077</v>
       </c>
@@ -8291,7 +8478,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A590" s="2" t="s">
         <v>1079</v>
       </c>
@@ -8299,13 +8486,15 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="591" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A591" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B591" s="5"/>
-    </row>
-    <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B591" s="5" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2" t="s">
         <v>1081</v>
       </c>
@@ -8313,7 +8502,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2" t="s">
         <v>1083</v>
       </c>
@@ -8321,7 +8510,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2" t="s">
         <v>1085</v>
       </c>
@@ -8330,9 +8519,280 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B594">
+  <sortState ref="A2:B594">
     <sortCondition ref="A594"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/typo_lookup.xlsx
+++ b/typo_lookup.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lookup!$B$1:$B$594</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -3772,7 +3772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3786,7 +3786,7 @@
   <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
